--- a/source/visualisationData/viz.xlsx
+++ b/source/visualisationData/viz.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="407">
   <si>
     <t>Ekonomija DL</t>
   </si>
@@ -1235,9 +1235,6 @@
   </si>
   <si>
     <t>15.44</t>
-  </si>
-  <si>
-    <t>COUNT</t>
   </si>
 </sst>
 </file>
@@ -1619,11 +1616,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S92"/>
+  <dimension ref="A1:S91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:S1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97:D97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3452,7 +3449,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G81" s="5">
         <v>73</v>
       </c>
@@ -3460,7 +3457,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G82" s="4" t="s">
         <v>389</v>
       </c>
@@ -3468,7 +3465,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G83" s="4" t="s">
         <v>391</v>
       </c>
@@ -3476,7 +3473,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G84" s="4" t="s">
         <v>391</v>
       </c>
@@ -3484,7 +3481,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G85" s="4" t="s">
         <v>394</v>
       </c>
@@ -3492,7 +3489,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G86" s="4" t="s">
         <v>396</v>
       </c>
@@ -3500,7 +3497,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G87" s="4" t="s">
         <v>247</v>
       </c>
@@ -3508,7 +3505,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G88" s="4" t="s">
         <v>399</v>
       </c>
@@ -3516,7 +3513,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G89" s="4" t="s">
         <v>401</v>
       </c>
@@ -3524,7 +3521,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G90" s="4" t="s">
         <v>403</v>
       </c>
@@ -3532,92 +3529,12 @@
         <v>404</v>
       </c>
     </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>407</v>
-      </c>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
       <c r="G91" s="4" t="s">
         <v>405</v>
       </c>
       <c r="H91" s="4" t="s">
         <v>406</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <f>COUNTA(B2:B91)</f>
-        <v>31</v>
-      </c>
-      <c r="C92">
-        <f t="shared" ref="C92:N92" si="0">COUNTA(C2:C91)</f>
-        <v>38</v>
-      </c>
-      <c r="D92">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="E92">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F92">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="H92">
-        <f t="shared" si="0"/>
-        <v>89</v>
-      </c>
-      <c r="I92">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="J92">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="K92">
-        <f t="shared" si="0"/>
-        <v>38</v>
-      </c>
-      <c r="L92">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="M92">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="N92">
-        <f t="shared" si="0"/>
-        <v>48</v>
-      </c>
-      <c r="O92">
-        <f t="shared" ref="O92" si="1">COUNTA(O2:O91)</f>
-        <v>17</v>
-      </c>
-      <c r="P92">
-        <f t="shared" ref="P92" si="2">COUNTA(P2:P91)</f>
-        <v>4</v>
-      </c>
-      <c r="Q92">
-        <f t="shared" ref="Q92" si="3">COUNTA(Q2:Q91)</f>
-        <v>16</v>
-      </c>
-      <c r="R92">
-        <f t="shared" ref="R92" si="4">COUNTA(R2:R91)</f>
-        <v>5</v>
-      </c>
-      <c r="S92">
-        <f t="shared" ref="S92" si="5">COUNTA(S2:S91)</f>
-        <v>5</v>
       </c>
     </row>
   </sheetData>
